--- a/data/IN/outputs/house_republicans_committee_votes.xlsx
+++ b/data/IN/outputs/house_republicans_committee_votes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="BJ1" sqref="BJ1:BR70"/>
     </sheetView>
   </sheetViews>

--- a/data/IN/outputs/house_republicans_committee_votes.xlsx
+++ b/data/IN/outputs/house_republicans_committee_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="BJ1" sqref="BJ1:BR70"/>
     </sheetView>
   </sheetViews>

--- a/data/IN/outputs/house_republicans_committee_votes.xlsx
+++ b/data/IN/outputs/house_republicans_committee_votes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -845,6 +845,9 @@
       <c r="R2">
         <v>1</v>
       </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
       <c r="T2">
         <v>1</v>
       </c>
@@ -855,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AW2">
         <v>1</v>
@@ -918,13 +921,16 @@
         <v>1</v>
       </c>
       <c r="BN2">
+        <v>0.7</v>
+      </c>
+      <c r="BO2">
         <v>1</v>
       </c>
       <c r="BP2">
         <v>1</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="BR2">
         <v>1</v>
@@ -1018,6 +1024,9 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <v>0.75</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
@@ -1045,16 +1054,22 @@
         <v>1</v>
       </c>
       <c r="U4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>0.33333333333333331</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1099,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="BC4">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BD4">
         <v>1</v>
@@ -1129,6 +1144,9 @@
         <v>1</v>
       </c>
       <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
         <v>1</v>
       </c>
       <c r="BP4">
@@ -1146,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1164,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1173,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1181,23 +1199,29 @@
       <c r="R5">
         <v>1</v>
       </c>
+      <c r="S5">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="Z5">
+        <v>0.7</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AG5">
         <v>1</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.90322580645161288</v>
       </c>
       <c r="AM5">
         <v>1</v>
@@ -1218,13 +1242,13 @@
         <v>1</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1233,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="BA5">
         <v>1</v>
@@ -1260,7 +1284,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="BK5">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="BL5">
         <v>1</v>
@@ -1269,13 +1293,16 @@
         <v>1</v>
       </c>
       <c r="BN5">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="BO5">
         <v>1</v>
       </c>
       <c r="BP5">
         <v>1</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="BR5">
         <v>1</v>
@@ -1327,6 +1354,9 @@
       <c r="R6">
         <v>1</v>
       </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
       <c r="T6">
         <v>1</v>
       </c>
@@ -1339,15 +1369,24 @@
       <c r="AA6">
         <v>1</v>
       </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
       <c r="AE6">
         <v>0.33333333333333331</v>
       </c>
       <c r="AF6">
         <v>1</v>
       </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
       <c r="AJ6">
         <v>0</v>
       </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
       <c r="AN6">
         <v>1</v>
       </c>
@@ -1363,6 +1402,9 @@
       <c r="AR6">
         <v>1</v>
       </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
       <c r="AV6">
         <v>1</v>
       </c>
@@ -1373,6 +1415,9 @@
         <v>1</v>
       </c>
       <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
         <v>1</v>
       </c>
       <c r="BB6">
@@ -1446,24 +1491,30 @@
       <c r="Q7">
         <v>1</v>
       </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
       <c r="U7">
         <v>0.8571428571428571</v>
       </c>
       <c r="V7">
+        <v>0.875</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AL7">
         <v>0.8</v>
       </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>0.8</v>
-      </c>
-      <c r="AL7">
-        <v>0.5</v>
-      </c>
       <c r="AQ7">
         <v>1</v>
       </c>
@@ -1471,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="AV7">
-        <v>0.875</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="BB7">
-        <v>0.875</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="BI7">
         <v>1</v>
@@ -1486,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="BO7">
-        <v>0.875</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="BR7">
         <v>0</v>
@@ -1505,20 +1556,38 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
       <c r="X8">
         <v>1</v>
       </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
       <c r="AD8">
         <v>1</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -1529,10 +1598,19 @@
       <c r="AR8">
         <v>1</v>
       </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
       <c r="BB8">
         <v>1</v>
       </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
       <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
         <v>1</v>
       </c>
     </row>
@@ -1606,6 +1684,9 @@
       <c r="AH9">
         <v>1</v>
       </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
       <c r="AJ9">
         <v>0.5</v>
       </c>
@@ -1634,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AW9">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="AX9">
         <v>1</v>
@@ -1696,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1734,11 +1815,14 @@
       <c r="T10">
         <v>1</v>
       </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -1756,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP10">
         <v>1</v>
@@ -1787,6 +1871,9 @@
       </c>
       <c r="BB10">
         <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>0.66666666666666663</v>
       </c>
       <c r="BD10">
         <v>1</v>
@@ -1832,12 +1919,18 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
       <c r="V11">
         <v>1</v>
       </c>
@@ -1860,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="BG11">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="BM11">
         <v>1</v>
@@ -1889,11 +1982,14 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
       <c r="I12">
         <v>1</v>
       </c>
@@ -1904,13 +2000,13 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -1921,23 +2017,29 @@
       <c r="T12">
         <v>1</v>
       </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.5</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AA12">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AB12">
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.7142857142857143</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="AG12">
         <v>1</v>
       </c>
       <c r="AK12">
-        <v>0.7142857142857143</v>
+        <v>0.85185185185185186</v>
       </c>
       <c r="AN12">
         <v>1</v>
@@ -1955,13 +2057,13 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="AV12">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AW12">
-        <v>0.875</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -1970,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="AZ12">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="BA12">
         <v>1</v>
@@ -1997,7 +2099,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="BK12">
-        <v>0.5</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="BL12">
         <v>1</v>
@@ -2034,6 +2136,9 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
       <c r="I13">
         <v>1</v>
       </c>
@@ -2041,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2050,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -2061,23 +2166,35 @@
       <c r="T13">
         <v>1</v>
       </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
       <c r="W13">
-        <v>1</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="Z13">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
         <v>1</v>
       </c>
       <c r="AC13">
         <v>0.7142857142857143</v>
       </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
       <c r="AG13">
         <v>1</v>
       </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
       <c r="AK13">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="AN13">
         <v>1</v>
@@ -2095,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="AV13">
         <v>1</v>
       </c>
       <c r="AW13">
-        <v>0.875</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -2113,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="BA13">
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="BB13">
         <v>1</v>
@@ -2131,13 +2248,16 @@
         <v>1</v>
       </c>
       <c r="BH13">
+        <v>1</v>
+      </c>
+      <c r="BI13">
         <v>1</v>
       </c>
       <c r="BJ13">
         <v>0.8571428571428571</v>
       </c>
       <c r="BK13">
-        <v>0.5</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="BL13">
         <v>1</v>
@@ -2177,6 +2297,9 @@
       <c r="R14">
         <v>1</v>
       </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
       <c r="V14">
         <v>1</v>
       </c>
@@ -2205,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="BK14">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="BN14">
         <v>0.5</v>
@@ -2353,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2365,10 +2488,10 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2386,25 +2509,25 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="Z16">
-        <v>0.66666666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="AB16">
         <v>1</v>
       </c>
       <c r="AC16">
-        <v>0.5</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="AG16">
         <v>1</v>
       </c>
       <c r="AK16">
-        <v>0.33333333333333331</v>
+        <v>0.73913043478260865</v>
       </c>
       <c r="AN16">
         <v>1</v>
@@ -2422,13 +2545,13 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="AV16">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AW16">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AX16">
         <v>1</v>
@@ -2437,10 +2560,10 @@
         <v>1</v>
       </c>
       <c r="AZ16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="BA16">
-        <v>1</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="BB16">
         <v>1</v>
@@ -2464,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="BK16">
-        <v>0.6</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="BL16">
         <v>1</v>
@@ -2531,6 +2654,9 @@
       <c r="R17">
         <v>1</v>
       </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
       <c r="T17">
         <v>1</v>
       </c>
@@ -2541,11 +2667,17 @@
         <v>1</v>
       </c>
       <c r="AF17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AI17">
         <v>1</v>
       </c>
       <c r="AJ17">
         <v>0.5</v>
       </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
       <c r="AN17">
         <v>1</v>
       </c>
@@ -2559,13 +2691,16 @@
         <v>1</v>
       </c>
       <c r="AR17">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AS17">
         <v>1</v>
       </c>
       <c r="AV17">
         <v>1</v>
       </c>
       <c r="AW17">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="AX17">
         <v>1</v>
@@ -2668,30 +2803,39 @@
       <c r="T18">
         <v>1</v>
       </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
+      <c r="Z18">
+        <v>0.8</v>
+      </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AD18">
         <v>1</v>
       </c>
       <c r="AE18">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AH18">
         <v>1</v>
       </c>
       <c r="AI18">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AJ18">
         <v>0.5</v>
       </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
       <c r="AN18">
         <v>1</v>
       </c>
@@ -2708,15 +2852,18 @@
         <v>1</v>
       </c>
       <c r="AV18">
-        <v>0.66666666666666663</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="AW18">
         <v>0.66666666666666663</v>
       </c>
       <c r="AX18">
-        <v>0.66666666666666663</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
         <v>1</v>
       </c>
       <c r="BB18">
@@ -2738,13 +2885,13 @@
         <v>1</v>
       </c>
       <c r="BI18">
-        <v>0</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="BJ18">
         <v>1</v>
       </c>
       <c r="BK18">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="BL18">
         <v>1</v>
@@ -2762,22 +2909,37 @@
         <v>1</v>
       </c>
       <c r="BR18">
-        <v>0.66666666666666663</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
       <c r="S19">
         <v>1</v>
       </c>
@@ -2787,29 +2949,65 @@
       <c r="X19">
         <v>1</v>
       </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
       <c r="AD19">
         <v>1</v>
       </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
       <c r="AH19">
         <v>1</v>
       </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
       <c r="AM19">
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AO19">
         <v>1</v>
       </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
       <c r="AR19">
         <v>1</v>
       </c>
+      <c r="AV19">
+        <v>0.625</v>
+      </c>
+      <c r="AW19">
+        <v>0.5</v>
+      </c>
       <c r="BB19">
         <v>1</v>
       </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
       <c r="BI19">
         <v>1</v>
       </c>
+      <c r="BN19">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="BO19">
+        <v>1</v>
+      </c>
       <c r="BP19">
         <v>1</v>
+      </c>
+      <c r="BQ19">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.25">
@@ -2837,6 +3035,9 @@
       <c r="J20">
         <v>1</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <v>1</v>
       </c>
@@ -2861,9 +3062,18 @@
       <c r="U20">
         <v>0.33333333333333331</v>
       </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
       <c r="X20">
         <v>1</v>
       </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
       <c r="AC20">
         <v>1</v>
       </c>
@@ -2871,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2916,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="BC20">
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="BD20">
         <v>1</v>
@@ -2946,6 +3156,9 @@
         <v>1</v>
       </c>
       <c r="BN20">
+        <v>1</v>
+      </c>
+      <c r="BO20">
         <v>1</v>
       </c>
       <c r="BP20">
@@ -2963,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F21">
         <v>0.33333333333333331</v>
@@ -2971,6 +3184,21 @@
       <c r="G21">
         <v>0.8571428571428571</v>
       </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
       <c r="S21">
         <v>1</v>
       </c>
@@ -2986,6 +3214,9 @@
       <c r="Z21">
         <v>1</v>
       </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
       <c r="AD21">
         <v>1</v>
       </c>
@@ -3005,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="AO21">
-        <v>0.66666666666666663</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -3016,6 +3247,12 @@
       <c r="BC21">
         <v>1</v>
       </c>
+      <c r="BF21">
+        <v>1</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
       <c r="BK21">
         <v>1</v>
       </c>
@@ -3024,6 +3261,9 @@
       </c>
       <c r="BP21">
         <v>1</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -3033,8 +3273,11 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="G22">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -3043,6 +3286,9 @@
         <v>1</v>
       </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="T22">
         <v>1</v>
       </c>
       <c r="U22">
@@ -3088,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="BN22">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="BO22">
         <v>1</v>
@@ -3102,51 +3348,72 @@
         <v>1</v>
       </c>
       <c r="E23">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
       <c r="Z23">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AA23">
+        <v>0.88</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AA23">
-        <v>1</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <v>0.75</v>
-      </c>
       <c r="AG23">
         <v>1</v>
       </c>
       <c r="AK23">
-        <v>0.7142857142857143</v>
+        <v>0.84</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0.95</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>0.5</v>
       </c>
       <c r="AW23">
-        <v>0.875</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="AX23">
         <v>1</v>
       </c>
       <c r="AZ23">
-        <v>1</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23">
         <v>1</v>
       </c>
       <c r="BD23">
@@ -3156,7 +3423,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="BK23">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="BP23">
         <v>1</v>
@@ -3190,14 +3457,20 @@
       <c r="T24">
         <v>1</v>
       </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
       <c r="X24">
         <v>1</v>
       </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
       <c r="AD24">
         <v>1</v>
       </c>
       <c r="AF24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH24">
         <v>1</v>
@@ -3209,6 +3482,9 @@
         <v>1</v>
       </c>
       <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
         <v>1</v>
       </c>
       <c r="BB24">
@@ -3240,6 +3516,9 @@
       <c r="I25">
         <v>1</v>
       </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
       <c r="O25">
         <v>1</v>
       </c>
@@ -3249,7 +3528,25 @@
       <c r="R25">
         <v>1</v>
       </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
       <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>0.8</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
         <v>1</v>
       </c>
       <c r="AJ25">
@@ -3258,10 +3555,22 @@
       <c r="AQ25">
         <v>1</v>
       </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
       <c r="AW25">
         <v>0.5</v>
       </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
       <c r="BI25">
+        <v>1</v>
+      </c>
+      <c r="BP25">
         <v>1</v>
       </c>
       <c r="BR25">
@@ -3272,17 +3581,23 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
+      <c r="E26">
+        <v>0.7</v>
+      </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="M26">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="P26">
-        <v>0.66666666666666663</v>
+        <v>0.8125</v>
+      </c>
+      <c r="R26">
+        <v>0.8</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -3291,16 +3606,19 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0.66666666666666663</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AC26">
         <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>0.8</v>
       </c>
       <c r="AG26">
         <v>0.66666666666666663</v>
@@ -3309,26 +3627,32 @@
         <v>1</v>
       </c>
       <c r="AK26">
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AS26">
-        <v>0.5</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AV26">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AW26">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="AX26">
         <v>1</v>
       </c>
       <c r="AZ26">
-        <v>0.66666666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="BA26">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="BB26">
         <v>1</v>
       </c>
+      <c r="BI26">
+        <v>1</v>
+      </c>
       <c r="BJ26">
         <v>1</v>
       </c>
@@ -3337,6 +3661,9 @@
       </c>
       <c r="BO26">
         <v>1</v>
+      </c>
+      <c r="BR26">
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
@@ -3344,34 +3671,40 @@
         <v>26</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="W27">
+        <v>0.88</v>
+      </c>
+      <c r="X27">
         <v>1</v>
       </c>
       <c r="Z27">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
       <c r="AC27">
-        <v>0.7142857142857143</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3379,8 +3712,11 @@
       <c r="AG27">
         <v>1</v>
       </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
       <c r="AK27">
-        <v>0.7142857142857143</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="AN27">
         <v>1</v>
@@ -3392,22 +3728,31 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="AV27">
+        <v>0.75</v>
       </c>
       <c r="AW27">
-        <v>0.8571428571428571</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="AZ27">
-        <v>1</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="BA27">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
+      <c r="BI27">
         <v>1</v>
       </c>
       <c r="BJ27">
         <v>0.83333333333333337</v>
       </c>
       <c r="BK27">
-        <v>0.33333333333333331</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
@@ -3417,12 +3762,30 @@
       <c r="B28">
         <v>1</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
       <c r="K28">
         <v>1</v>
       </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
       <c r="P28">
         <v>1</v>
       </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
       <c r="V28">
         <v>1</v>
       </c>
@@ -3447,6 +3810,9 @@
       <c r="BD28">
         <v>1</v>
       </c>
+      <c r="BG28">
+        <v>1</v>
+      </c>
       <c r="BM28">
         <v>1</v>
       </c>
@@ -3460,6 +3826,9 @@
         <v>1</v>
       </c>
       <c r="BQ28">
+        <v>1</v>
+      </c>
+      <c r="BR28">
         <v>1</v>
       </c>
     </row>
@@ -3471,34 +3840,40 @@
         <v>1</v>
       </c>
       <c r="E29">
+        <v>0.75</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="J29">
         <v>0.8</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
       <c r="L29">
-        <v>0.7142857142857143</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="M29">
         <v>0.7142857142857143</v>
       </c>
       <c r="P29">
-        <v>0.5</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.75</v>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="Y29">
+        <v>0.8</v>
       </c>
       <c r="Z29">
         <v>1</v>
       </c>
       <c r="AA29">
-        <v>0.7142857142857143</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="AC29">
         <v>1</v>
@@ -3510,25 +3885,28 @@
         <v>0.5</v>
       </c>
       <c r="AH29">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AK29">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AR29">
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AV29">
+        <v>0.5</v>
       </c>
       <c r="AW29">
+        <v>0.85</v>
+      </c>
+      <c r="AZ29">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="BA29">
         <v>0.875</v>
-      </c>
-      <c r="AZ29">
-        <v>0.75</v>
-      </c>
-      <c r="BA29">
-        <v>0.8</v>
       </c>
       <c r="BJ29">
         <v>0.7142857142857143</v>
@@ -3537,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="BP29">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
@@ -3565,6 +3943,9 @@
       <c r="U30">
         <v>1</v>
       </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
       <c r="X30">
         <v>1</v>
       </c>
@@ -3575,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH30">
         <v>1</v>
@@ -3587,6 +3968,12 @@
         <v>1</v>
       </c>
       <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AU30">
+        <v>1</v>
+      </c>
+      <c r="BA30">
         <v>1</v>
       </c>
       <c r="BB30">
@@ -3601,26 +3988,35 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F31">
         <v>0.33333333333333331</v>
       </c>
       <c r="J31">
+        <v>0.8</v>
+      </c>
+      <c r="M31">
         <v>1</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="R31">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="T31">
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="U31">
         <v>1</v>
       </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>0.8</v>
+      </c>
       <c r="AE31">
         <v>1</v>
       </c>
@@ -3628,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AJ31">
         <v>0.66666666666666663</v>
@@ -3637,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="AO31">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -3646,10 +4042,10 @@
         <v>1</v>
       </c>
       <c r="AV31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AX31">
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="BC31">
         <v>1</v>
@@ -3658,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="BI31">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="BM31">
         <v>1</v>
@@ -3677,26 +4073,35 @@
       <c r="F32">
         <v>1</v>
       </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
       <c r="H32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="Q32">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S32">
         <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
+      <c r="W32">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="X32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA32">
         <v>1</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3708,21 +4113,30 @@
         <v>1</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="AR32">
         <v>1</v>
       </c>
+      <c r="AS32">
+        <v>0.8</v>
+      </c>
       <c r="AU32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BB32">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="BF32">
+        <v>0.5</v>
       </c>
       <c r="BG32">
+        <v>1</v>
+      </c>
+      <c r="BI32">
         <v>1</v>
       </c>
     </row>
@@ -3813,6 +4227,9 @@
       <c r="D34">
         <v>1</v>
       </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
       <c r="H34">
         <v>1</v>
       </c>
@@ -3837,8 +4254,14 @@
       <c r="X34">
         <v>1</v>
       </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -3870,16 +4293,28 @@
         <v>34</v>
       </c>
       <c r="G35">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
         <v>0.8</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="R35">
-        <v>0.5</v>
+      <c r="S35">
+        <v>1</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -3887,11 +4322,14 @@
       <c r="V35">
         <v>1</v>
       </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
       <c r="Z35">
         <v>1</v>
       </c>
       <c r="AE35">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AI35">
         <v>1</v>
@@ -3900,7 +4338,10 @@
         <v>1</v>
       </c>
       <c r="AV35">
-        <v>1</v>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
       </c>
       <c r="AX35">
         <v>1</v>
@@ -3915,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="BG35">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="BI35">
         <v>1</v>
@@ -3933,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="BR35">
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
@@ -3988,31 +4429,34 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0.90322580645161288</v>
       </c>
       <c r="L37">
-        <v>0.7142857142857143</v>
+        <v>0.85185185185185186</v>
       </c>
       <c r="M37">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="P37">
-        <v>0.33333333333333331</v>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="S37">
+        <v>0.77777777777777779</v>
       </c>
       <c r="W37">
-        <v>0.7142857142857143</v>
+        <v>0.84</v>
       </c>
       <c r="Z37">
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA37">
-        <v>0.7142857142857143</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="AC37">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AG37">
         <v>0.33333333333333331</v>
@@ -4021,34 +4465,37 @@
         <v>1</v>
       </c>
       <c r="AM37">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AS37">
-        <v>0.33333333333333331</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="AV37">
-        <v>1</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="AW37">
-        <v>0.8571428571428571</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AZ37">
-        <v>0.7142857142857143</v>
+        <v>0.81481481481481477</v>
       </c>
       <c r="BA37">
-        <v>0.5</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="BJ37">
         <v>0.66666666666666663</v>
       </c>
       <c r="BK37">
-        <v>0.33333333333333331</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="BN37">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="BO37">
+        <v>0.8</v>
       </c>
       <c r="BQ37">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.25">
@@ -4058,8 +4505,11 @@
       <c r="C38">
         <v>1</v>
       </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
       <c r="G38">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -4073,6 +4523,12 @@
       <c r="O38">
         <v>1</v>
       </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
       <c r="V38">
         <v>1</v>
       </c>
@@ -4086,6 +4542,9 @@
         <v>1</v>
       </c>
       <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AQ38">
         <v>1</v>
       </c>
       <c r="AR38">
@@ -4101,6 +4560,9 @@
         <v>1</v>
       </c>
       <c r="BG38">
+        <v>1</v>
+      </c>
+      <c r="BI38">
         <v>1</v>
       </c>
       <c r="BN38">
@@ -4112,7 +4574,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4123,8 +4585,11 @@
       <c r="H39">
         <v>1</v>
       </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
       <c r="S39">
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -4145,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -4154,19 +4619,25 @@
         <v>1</v>
       </c>
       <c r="AV39">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="BA39">
         <v>1</v>
       </c>
       <c r="BB39">
         <v>1</v>
       </c>
       <c r="BN39">
+        <v>0.7</v>
+      </c>
+      <c r="BO39">
         <v>1</v>
       </c>
       <c r="BP39">
         <v>1</v>
       </c>
       <c r="BQ39">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
@@ -4225,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="AF40">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AN40">
         <v>1</v>
@@ -4240,6 +4711,9 @@
         <v>1</v>
       </c>
       <c r="AR40">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AS40">
         <v>1</v>
       </c>
       <c r="AT40">
@@ -4255,6 +4729,9 @@
         <v>1</v>
       </c>
       <c r="AY40">
+        <v>1</v>
+      </c>
+      <c r="BA40">
         <v>1</v>
       </c>
       <c r="BB40">
@@ -4323,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4356,22 +4833,22 @@
         <v>1</v>
       </c>
       <c r="U41">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <v>0.33333333333333331</v>
       </c>
       <c r="AH41">
         <v>1</v>
@@ -4412,11 +4889,14 @@
       <c r="AY41">
         <v>1</v>
       </c>
+      <c r="BA41">
+        <v>1</v>
+      </c>
       <c r="BB41">
         <v>1</v>
       </c>
       <c r="BC41">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BD41">
         <v>1</v>
@@ -4437,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="BK41">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="BL41">
         <v>1</v>
@@ -4620,6 +5100,9 @@
       <c r="R43">
         <v>1</v>
       </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
       <c r="T43">
         <v>1</v>
       </c>
@@ -4630,6 +5113,9 @@
         <v>1</v>
       </c>
       <c r="AF43">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="AL43">
         <v>1</v>
       </c>
       <c r="AN43">
@@ -4645,6 +5131,9 @@
         <v>1</v>
       </c>
       <c r="AR43">
+        <v>0.9</v>
+      </c>
+      <c r="AS43">
         <v>1</v>
       </c>
       <c r="AV43">
@@ -4657,6 +5146,9 @@
         <v>1</v>
       </c>
       <c r="AY43">
+        <v>1</v>
+      </c>
+      <c r="BA43">
         <v>1</v>
       </c>
       <c r="BB43">
@@ -4746,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -4760,6 +5252,9 @@
       <c r="X44">
         <v>1</v>
       </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
       <c r="AA44">
         <v>1</v>
       </c>
@@ -4785,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="AN44">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="AO44">
         <v>1</v>
@@ -4794,11 +5289,14 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR44">
         <v>1</v>
       </c>
+      <c r="AS44">
+        <v>0.8</v>
+      </c>
       <c r="AU44">
         <v>1</v>
       </c>
@@ -4814,6 +5312,9 @@
       <c r="AY44">
         <v>1</v>
       </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
       <c r="BB44">
         <v>1</v>
       </c>
@@ -4824,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="BF44">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BG44">
         <v>1</v>
@@ -4865,52 +5366,76 @@
         <v>44</v>
       </c>
       <c r="E45">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="F45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="P45">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="Q45">
         <v>1</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z45">
-        <v>0.5</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AC45">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AF45">
+        <v>0.8</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>0.8</v>
+      </c>
+      <c r="AS45">
+        <v>1</v>
+      </c>
+      <c r="AV45">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AG45">
-        <v>1</v>
-      </c>
-      <c r="AK45">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AS45">
-        <v>1</v>
-      </c>
       <c r="AW45">
-        <v>0.66666666666666663</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AZ45">
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="BA45">
         <v>1</v>
       </c>
+      <c r="BF45">
+        <v>1</v>
+      </c>
       <c r="BJ45">
         <v>1</v>
       </c>
       <c r="BK45">
-        <v>0.33333333333333331</v>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="46" spans="1:70" x14ac:dyDescent="0.25">
@@ -4973,6 +5498,9 @@
       <c r="G47">
         <v>1</v>
       </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
       <c r="I47">
         <v>0.5</v>
       </c>
@@ -4988,11 +5516,23 @@
       <c r="V47">
         <v>0.5</v>
       </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
       <c r="AE47">
         <v>1</v>
       </c>
       <c r="AF47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG47">
         <v>1</v>
@@ -5007,6 +5547,9 @@
         <v>1</v>
       </c>
       <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="BB47">
         <v>1</v>
       </c>
       <c r="BE47">
@@ -5024,19 +5567,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>0.875</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -5045,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -5054,13 +5597,16 @@
         <v>1</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Q48">
         <v>1</v>
       </c>
       <c r="R48">
-        <v>0.66666666666666663</v>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="S48">
+        <v>0.625</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -5071,20 +5617,29 @@
       <c r="V48">
         <v>1</v>
       </c>
+      <c r="W48">
+        <v>0.5</v>
+      </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AA48">
+        <v>0.75</v>
+      </c>
+      <c r="AC48">
+        <v>0.5</v>
       </c>
       <c r="AE48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="AM48">
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AN48">
         <v>1</v>
@@ -5101,18 +5656,24 @@
       <c r="AR48">
         <v>1</v>
       </c>
+      <c r="AS48">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="AV48">
         <v>1</v>
       </c>
       <c r="AW48">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AX48">
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AY48">
         <v>1</v>
       </c>
+      <c r="AZ48">
+        <v>0.5</v>
+      </c>
       <c r="BB48">
         <v>1</v>
       </c>
@@ -5132,13 +5693,13 @@
         <v>1</v>
       </c>
       <c r="BI48">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="BJ48">
         <v>1</v>
       </c>
       <c r="BK48">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BL48">
         <v>1</v>
@@ -5147,19 +5708,19 @@
         <v>1</v>
       </c>
       <c r="BN48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BO48">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="BP48">
         <v>1</v>
       </c>
       <c r="BQ48">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="BR48">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="49" spans="1:70" x14ac:dyDescent="0.25">
@@ -5173,61 +5734,67 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>0.875</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="M49">
-        <v>0.875</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O49">
         <v>0.66666666666666663</v>
       </c>
       <c r="P49">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q49">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="R49">
         <v>0.66666666666666663</v>
       </c>
+      <c r="S49">
+        <v>0.5</v>
+      </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="W49">
-        <v>0.875</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="Y49">
         <v>0.5</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="AA49">
-        <v>0.8571428571428571</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="AG49">
         <v>0.75</v>
       </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
       <c r="AJ49">
         <v>0</v>
       </c>
       <c r="AK49">
-        <v>0.8571428571428571</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AN49">
         <v>1</v>
@@ -5245,40 +5812,40 @@
         <v>1</v>
       </c>
       <c r="AS49">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="AV49">
+        <v>0.4</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>1</v>
+      </c>
+      <c r="AY49">
+        <v>1</v>
+      </c>
+      <c r="AZ49">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="BA49">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BD49">
+        <v>1</v>
+      </c>
+      <c r="BE49">
+        <v>1</v>
+      </c>
+      <c r="BF49">
+        <v>1</v>
+      </c>
+      <c r="BG49">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="AV49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>1</v>
-      </c>
-      <c r="AZ49">
-        <v>0.875</v>
-      </c>
-      <c r="BA49">
-        <v>0.8</v>
-      </c>
-      <c r="BB49">
-        <v>1</v>
-      </c>
-      <c r="BD49">
-        <v>1</v>
-      </c>
-      <c r="BE49">
-        <v>1</v>
-      </c>
-      <c r="BF49">
-        <v>1</v>
-      </c>
-      <c r="BG49">
-        <v>1</v>
       </c>
       <c r="BH49">
         <v>1</v>
@@ -5287,7 +5854,7 @@
         <v>0.875</v>
       </c>
       <c r="BK49">
-        <v>0.8</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="BL49">
         <v>1</v>
@@ -5346,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="R50">
-        <v>0.66666666666666663</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="T50">
         <v>1</v>
@@ -5354,11 +5921,14 @@
       <c r="W50">
         <v>1</v>
       </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
       <c r="AB50">
         <v>1</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AG50">
         <v>1</v>
@@ -5388,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="AV50">
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AW50">
         <v>1</v>
@@ -5442,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="BR50">
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="51" spans="1:70" x14ac:dyDescent="0.25">
@@ -5563,52 +6133,55 @@
         <v>51</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="Z52">
-        <v>0.66666666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="AC52">
-        <v>0.75</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="AG52">
         <v>1</v>
       </c>
       <c r="AK52">
-        <v>0.7142857142857143</v>
+        <v>0.81481481481481477</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="AV52">
+        <v>0.5</v>
       </c>
       <c r="AW52">
-        <v>0.875</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="AZ52">
         <v>1</v>
       </c>
       <c r="BA52">
-        <v>1</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="BJ52">
         <v>0.8571428571428571</v>
       </c>
       <c r="BK52">
-        <v>0.5</v>
+        <v>0.82608695652173914</v>
       </c>
     </row>
     <row r="53" spans="1:70" x14ac:dyDescent="0.25">
@@ -5618,50 +6191,77 @@
       <c r="E53">
         <v>1</v>
       </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="P53">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="R53">
         <v>1</v>
       </c>
       <c r="W53">
         <v>1</v>
       </c>
       <c r="Z53">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="AA53">
-        <v>1</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>0.875</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
       </c>
       <c r="AG53">
         <v>1</v>
       </c>
       <c r="AK53">
-        <v>0.5</v>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1</v>
       </c>
       <c r="AS53">
         <v>1</v>
       </c>
       <c r="AW53">
-        <v>0.8</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="AZ53">
-        <v>1</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="BA53">
+        <v>1</v>
+      </c>
+      <c r="BB53">
         <v>1</v>
       </c>
       <c r="BJ53">
         <v>0.75</v>
       </c>
       <c r="BK53">
-        <v>0.66666666666666663</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:70" x14ac:dyDescent="0.25">
@@ -5681,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>0.875</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5725,17 +6325,23 @@
       <c r="V54">
         <v>1</v>
       </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
       <c r="X54">
         <v>1</v>
       </c>
       <c r="Z54">
         <v>1</v>
       </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
       <c r="AD54">
         <v>1</v>
       </c>
       <c r="AF54">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH54">
         <v>1</v>
@@ -5761,6 +6367,9 @@
       <c r="AR54">
         <v>1</v>
       </c>
+      <c r="AU54">
+        <v>1</v>
+      </c>
       <c r="AV54">
         <v>1</v>
       </c>
@@ -5773,6 +6382,9 @@
       <c r="AY54">
         <v>1</v>
       </c>
+      <c r="BA54">
+        <v>1</v>
+      </c>
       <c r="BB54">
         <v>1</v>
       </c>
@@ -5798,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="BK54">
-        <v>0.9</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="BL54">
         <v>1</v>
@@ -5827,13 +6439,16 @@
         <v>54</v>
       </c>
       <c r="D55">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F55">
         <v>0.33333333333333331</v>
       </c>
+      <c r="J55">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="T55">
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="U55">
         <v>1</v>
@@ -5845,7 +6460,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="AO55">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BC55">
         <v>1</v>
@@ -5949,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="BG56">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="BH56">
         <v>1</v>
@@ -6156,9 +6771,15 @@
       <c r="T58">
         <v>1</v>
       </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
       <c r="X58">
         <v>1</v>
       </c>
+      <c r="AF58">
+        <v>0.5</v>
+      </c>
       <c r="AN58">
         <v>1</v>
       </c>
@@ -6172,6 +6793,9 @@
         <v>1</v>
       </c>
       <c r="AR58">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AS58">
         <v>1</v>
       </c>
       <c r="AV58">
@@ -6208,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="BK58">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="BL58">
         <v>1</v>
@@ -6245,6 +6869,9 @@
       <c r="F59">
         <v>1</v>
       </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
       <c r="I59">
         <v>1</v>
       </c>
@@ -6252,7 +6879,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K59">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -6275,14 +6902,26 @@
       <c r="R59">
         <v>1</v>
       </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
       <c r="T59">
         <v>1</v>
       </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
       <c r="AF59">
         <v>1</v>
       </c>
       <c r="AI59">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AL59">
         <v>1</v>
@@ -6312,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="AW59">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AX59">
         <v>1</v>
@@ -6324,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="BD59">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="BE59">
         <v>1</v>
@@ -6357,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="BQ59">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="BR59">
         <v>1</v>
@@ -6495,11 +7134,14 @@
       <c r="I61">
         <v>1</v>
       </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -6510,7 +7152,16 @@
       <c r="Y61">
         <v>1</v>
       </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
       <c r="AE61">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AF61">
         <v>1</v>
       </c>
       <c r="AH61">
@@ -6519,6 +7170,9 @@
       <c r="AI61">
         <v>1</v>
       </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
       <c r="AQ61">
         <v>1</v>
       </c>
@@ -6526,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="AV61">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AX61">
         <v>1</v>
@@ -6544,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="BR61">
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="62" spans="1:70" x14ac:dyDescent="0.25">
@@ -6698,7 +7352,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -6713,25 +7367,25 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>0.5</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="M63">
-        <v>0.5</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="N63">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O63">
         <v>1</v>
       </c>
       <c r="P63">
-        <v>0.6</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="T63">
         <v>1</v>
@@ -6743,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="W63">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="X63">
         <v>0.75</v>
@@ -6752,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="AA63">
-        <v>0.33333333333333331</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="AC63">
         <v>1</v>
@@ -6764,13 +7418,13 @@
         <v>1</v>
       </c>
       <c r="AK63">
-        <v>0.33333333333333331</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AN63">
         <v>1</v>
       </c>
       <c r="AO63">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AP63">
         <v>1</v>
@@ -6782,13 +7436,13 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>0.33333333333333331</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="AV63">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AW63">
-        <v>0.8</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="AX63">
         <v>1</v>
@@ -6797,13 +7451,13 @@
         <v>1</v>
       </c>
       <c r="AZ63">
-        <v>0.5</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="BA63">
-        <v>0.66666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="BB63">
-        <v>0.9</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="BD63">
         <v>1</v>
@@ -6812,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="BF63">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="BG63">
         <v>1</v>
@@ -7103,7 +7757,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="C66">
         <v>0.5</v>
@@ -7112,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -7150,23 +7804,26 @@
       <c r="R66">
         <v>1</v>
       </c>
+      <c r="S66">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="T66">
         <v>1</v>
       </c>
       <c r="V66">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB66">
         <v>1</v>
       </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL66">
         <v>0.5</v>
       </c>
       <c r="AM66">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN66">
         <v>1</v>
@@ -7190,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="AV66">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AW66">
         <v>1</v>
@@ -7234,11 +7891,14 @@
       <c r="BN66">
         <v>1</v>
       </c>
+      <c r="BO66">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="BP66">
         <v>1</v>
       </c>
       <c r="BQ66">
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="BR66">
         <v>1</v>
@@ -7248,12 +7908,27 @@
       <c r="A67" t="s">
         <v>66</v>
       </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
       <c r="G67">
-        <v>0.875</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
       <c r="U67">
         <v>1</v>
       </c>
@@ -7269,6 +7944,12 @@
       <c r="AI67">
         <v>1</v>
       </c>
+      <c r="AK67">
+        <v>0.8</v>
+      </c>
+      <c r="AM67">
+        <v>1</v>
+      </c>
       <c r="AN67">
         <v>1</v>
       </c>
@@ -7279,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="AV67">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="BB67">
         <v>1</v>
@@ -7290,8 +7971,14 @@
       <c r="BM67">
         <v>1</v>
       </c>
+      <c r="BN67">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="BO67">
         <v>1</v>
+      </c>
+      <c r="BQ67">
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:70" x14ac:dyDescent="0.25">
@@ -7349,11 +8036,14 @@
       <c r="W68">
         <v>1</v>
       </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
       <c r="AB68">
         <v>1</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AD68">
         <v>1</v>
@@ -7439,13 +8129,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -7477,6 +8167,9 @@
       <c r="R69">
         <v>1</v>
       </c>
+      <c r="S69">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="T69">
         <v>1</v>
       </c>
@@ -7490,10 +8183,10 @@
         <v>1</v>
       </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM69">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AN69">
         <v>1</v>
@@ -7514,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="AV69">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AW69">
         <v>1</v>
@@ -7538,7 +8231,7 @@
         <v>1</v>
       </c>
       <c r="BG69">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="BH69">
         <v>1</v>
@@ -7556,7 +8249,10 @@
         <v>1</v>
       </c>
       <c r="BN69">
-        <v>1</v>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="BO69">
+        <v>0.8</v>
       </c>
       <c r="BP69">
         <v>1</v>
@@ -7590,6 +8286,9 @@
       <c r="G70">
         <v>0</v>
       </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
       <c r="I70">
         <v>0.5</v>
       </c>
@@ -7615,19 +8314,28 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="R70">
-        <v>0.66666666666666663</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="T70">
         <v>1</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>0.5</v>
       </c>
+      <c r="Z70">
+        <v>0.8</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
       <c r="AE70">
         <v>1</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AN70">
         <v>1</v>
@@ -7648,13 +8356,13 @@
         <v>1</v>
       </c>
       <c r="AV70">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AW70">
         <v>1</v>
       </c>
       <c r="AX70">
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AY70">
         <v>1</v>
@@ -7678,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="BI70">
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BJ70">
         <v>1</v>
